--- a/public/file/contoh.xlsx
+++ b/public/file/contoh.xlsx
@@ -16,10 +16,10 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
   <si>
-    <t>Bilhaq bil</t>
-  </si>
-  <si>
-    <t>a@a.cm</t>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b@b.cma</t>
   </si>
   <si>
     <t>admin</t>
@@ -31,37 +31,37 @@
     <t>yes</t>
   </si>
   <si>
-    <t>q</t>
-  </si>
-  <si>
-    <t>w@w.com</t>
-  </si>
-  <si>
-    <t>w</t>
-  </si>
-  <si>
-    <t>e@e.com</t>
+    <t>b</t>
+  </si>
+  <si>
+    <t>a@z.coma</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>c@c.coma</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>d@d.coma</t>
   </si>
   <si>
     <t>e</t>
   </si>
   <si>
-    <t>r@r.com</t>
-  </si>
-  <si>
-    <t>r</t>
-  </si>
-  <si>
-    <t>t@t.com</t>
+    <t>er@r.coma</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>t</t>
-  </si>
-  <si>
-    <t>y@t.com</t>
+    <t>f</t>
+  </si>
+  <si>
+    <t>f@f.coma</t>
   </si>
 </sst>
 </file>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
@@ -1040,7 +1040,7 @@
       <c r="A2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
@@ -1123,12 +1123,12 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="a@a.cm" tooltip="mailto:a@a.cm"/>
-    <hyperlink ref="B2" r:id="rId2" display="w@w.com" tooltip="mailto:w@w.com"/>
-    <hyperlink ref="B3" r:id="rId3" display="e@e.com" tooltip="mailto:e@e.com"/>
-    <hyperlink ref="B4" r:id="rId4" display="r@r.com" tooltip="mailto:r@r.com"/>
-    <hyperlink ref="B5" r:id="rId5" display="t@t.com" tooltip="mailto:t@t.com"/>
-    <hyperlink ref="B6" r:id="rId6" display="y@t.com" tooltip="mailto:y@t.com"/>
+    <hyperlink ref="B1" r:id="rId1" display="b@b.cma" tooltip="mailto:b@b.cma"/>
+    <hyperlink ref="B2" r:id="rId2" display="a@z.coma" tooltip="mailto:a@z.coma"/>
+    <hyperlink ref="B3" r:id="rId3" display="c@c.coma" tooltip="mailto:c@c.coma"/>
+    <hyperlink ref="B4" r:id="rId4" display="d@d.coma" tooltip="mailto:d@d.coma"/>
+    <hyperlink ref="B5" r:id="rId5" display="er@r.coma" tooltip="mailto:er@r.coma"/>
+    <hyperlink ref="B6" r:id="rId6" display="f@f.coma" tooltip="mailto:f@f.coma"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/public/file/contoh.xlsx
+++ b/public/file/contoh.xlsx
@@ -14,54 +14,87 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="16">
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b@b.cma</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+  <si>
+    <t>Billy</t>
+  </si>
+  <si>
+    <t>billy@incrustwerush.org</t>
   </si>
   <si>
     <t>admin</t>
   </si>
   <si>
-    <t>bilhaqss</t>
+    <t>passwordbilly</t>
   </si>
   <si>
     <t>yes</t>
   </si>
   <si>
-    <t>b</t>
-  </si>
-  <si>
-    <t>a@z.coma</t>
-  </si>
-  <si>
-    <t>c</t>
-  </si>
-  <si>
-    <t>c@c.coma</t>
-  </si>
-  <si>
-    <t>d</t>
-  </si>
-  <si>
-    <t>d@d.coma</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>er@r.coma</t>
+    <t>John anjay</t>
+  </si>
+  <si>
+    <t>john@example.com</t>
+  </si>
+  <si>
+    <t>passwordjohn12</t>
+  </si>
+  <si>
+    <t>poee the anjay</t>
+  </si>
+  <si>
+    <t>poee@examplea.com</t>
   </si>
   <si>
     <t>user</t>
   </si>
   <si>
-    <t>f</t>
-  </si>
-  <si>
-    <t>f@f.coma</t>
+    <t>paswordpoee</t>
+  </si>
+  <si>
+    <t>Bronsen anjay</t>
+  </si>
+  <si>
+    <t>bronsen@example.coma</t>
+  </si>
+  <si>
+    <t>bronsenpass12</t>
+  </si>
+  <si>
+    <t>John Doe</t>
+  </si>
+  <si>
+    <t>john.doe@example.com</t>
+  </si>
+  <si>
+    <t>RandomPassword123</t>
+  </si>
+  <si>
+    <t>Emily Davis</t>
+  </si>
+  <si>
+    <t>emily.davis@example.com</t>
+  </si>
+  <si>
+    <t>StrongPass789</t>
+  </si>
+  <si>
+    <t>Michael Johnson</t>
+  </si>
+  <si>
+    <t>michael.johnson@example.com</t>
+  </si>
+  <si>
+    <t>SecretPass987</t>
+  </si>
+  <si>
+    <t>Sarah Miller</t>
+  </si>
+  <si>
+    <t>sarah.miller@example.com</t>
+  </si>
+  <si>
+    <t>Secure123Pass</t>
   </si>
 </sst>
 </file>
@@ -70,9 +103,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +133,28 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -108,7 +163,60 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -123,91 +231,16 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -236,67 +269,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -308,49 +419,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -362,61 +437,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -430,26 +463,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -472,19 +496,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -504,17 +517,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +531,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -532,22 +565,46 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -556,118 +613,94 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="7" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" applyNumberFormat="false" applyFont="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="false" applyFill="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="false" applyAlignment="false" applyProtection="false">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="false" applyFill="false" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -677,7 +710,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -686,6 +719,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="48">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="48" applyFont="true" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="true">
+      <alignment vertical="center" wrapText="true"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1006,17 +1045,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="26.75" customWidth="true"/>
     <col min="2" max="2" width="23" customWidth="true"/>
-    <col min="4" max="4" width="13.875" customWidth="true"/>
+    <col min="4" max="4" width="25.75" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1047,7 +1086,7 @@
         <v>2</v>
       </c>
       <c r="D2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E2" t="s">
         <v>4</v>
@@ -1055,16 +1094,16 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
+      <c r="B3" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="C3" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
         <v>4</v>
@@ -1072,16 +1111,16 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>10</v>
       </c>
-      <c r="C4" t="s">
-        <v>2</v>
-      </c>
       <c r="D4" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
         <v>4</v>
@@ -1089,46 +1128,82 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>12</v>
+        <v>15</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>17</v>
       </c>
       <c r="E5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>15</v>
+      <c r="A6" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" t="s">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="E6" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" ht="28.5" spans="1:5">
+      <c r="A7" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" t="s">
         <v>4</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B1" r:id="rId1" display="b@b.cma" tooltip="mailto:b@b.cma"/>
-    <hyperlink ref="B2" r:id="rId2" display="a@z.coma" tooltip="mailto:a@z.coma"/>
-    <hyperlink ref="B3" r:id="rId3" display="c@c.coma" tooltip="mailto:c@c.coma"/>
-    <hyperlink ref="B4" r:id="rId4" display="d@d.coma" tooltip="mailto:d@d.coma"/>
-    <hyperlink ref="B5" r:id="rId5" display="er@r.coma" tooltip="mailto:er@r.coma"/>
-    <hyperlink ref="B6" r:id="rId6" display="f@f.coma" tooltip="mailto:f@f.coma"/>
+    <hyperlink ref="B2" r:id="rId1" display="john@example.com" tooltip="mailto:john@example.com"/>
+    <hyperlink ref="B3" r:id="rId2" display="poee@examplea.com" tooltip="mailto:poee@examplea.com"/>
+    <hyperlink ref="B4" r:id="rId3" display="bronsen@example.coma" tooltip="mailto:bronsen@example.coma"/>
+    <hyperlink ref="B6" r:id="rId4" display="emily.davis@example.com" tooltip="mailto:emily.davis@example.com"/>
+    <hyperlink ref="B7" r:id="rId5" display="michael.johnson@example.com" tooltip="mailto:michael.johnson@example.com"/>
+    <hyperlink ref="B5" r:id="rId6" display="john.doe@example.com" tooltip="mailto:john.doe@example.com"/>
+    <hyperlink ref="B1" r:id="rId7" display="billy@incrustwerush.org" tooltip="mailto:billy@incrustwerush.org"/>
+    <hyperlink ref="B8" r:id="rId8" display="sarah.miller@example.com" tooltip="mailto:sarah.miller@example.com"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
